--- a/biology/Médecine/Liste_de_l'OMS_des_maladies_prioritaires/Liste_de_l'OMS_des_maladies_prioritaires.xlsx
+++ b/biology/Médecine/Liste_de_l'OMS_des_maladies_prioritaires/Liste_de_l'OMS_des_maladies_prioritaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_l%27OMS_des_maladies_prioritaires</t>
+          <t>Liste_de_l'OMS_des_maladies_prioritaires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des maladies prioritaires est une liste établie chaque année depuis 2015 par l'Organisation mondiale de la santé (OMS) dans le cadre de sa stratégie Research and Development (R&amp;D) Blueprint, contenant les maladies et pathogènes qui représentent la menace la plus importante pour la santé publique par leur potentiel épidémique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_l%27OMS_des_maladies_prioritaires</t>
+          <t>Liste_de_l'OMS_des_maladies_prioritaires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces données ont pour objectif de marquer les maladies à surveiller et à étudier en priorité. Il convient donc de trouver des traitements efficaces et de poser de meilleurs diagnostics, le plus rapidement possible. Ces actions sont réalisées afin d'éviter une pandémie, potentiellement menaçante pour la survie de l'espèce humaine.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_l%27OMS_des_maladies_prioritaires</t>
+          <t>Liste_de_l'OMS_des_maladies_prioritaires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Maladies actuellement inscrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2021, l'OMS incluait 9 maladies dans cette liste[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2021, l'OMS incluait 9 maladies dans cette liste :
 Covid-19
 Fièvre hémorragique de Crimée-Congo
 Maladie à virus Ebola et à virus Marburg
@@ -554,7 +570,7 @@
 Fièvre de la vallée du Rift (RVF)
 Maladie à virus Zika
 Maladie X
-En 2018, l'OMS a étudié mais finalement écarté l'ajout de plusieurs autres maladies posant un problème majeur de santé publique, comme le chikungunya, les fièvres hémorragiques causées par des arenavirus hors fièvre de Lassa, et les entérovirus hors polio (comme EV-A71 et EV-D68)[2].
+En 2018, l'OMS a étudié mais finalement écarté l'ajout de plusieurs autres maladies posant un problème majeur de santé publique, comme le chikungunya, les fièvres hémorragiques causées par des arenavirus hors fièvre de Lassa, et les entérovirus hors polio (comme EV-A71 et EV-D68).
 </t>
         </is>
       </c>
